--- a/src/test/resources/Vtiger_project1.xlsx
+++ b/src/test/resources/Vtiger_project1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Test Case_ID</t>
   </si>

--- a/src/test/resources/Vtiger_project1.xlsx
+++ b/src/test/resources/Vtiger_project1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Test Case_ID</t>
   </si>

--- a/src/test/resources/Vtiger_project1.xlsx
+++ b/src/test/resources/Vtiger_project1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>Test Case_ID</t>
   </si>
